--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/20/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.11130000000001</v>
+        <v>-21.12900000000001</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-20.03129999999999</v>
+        <v>-20.04169999999999</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.31420000000002</v>
+        <v>-21.28230000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-20.5408</v>
+        <v>-20.34699999999999</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.0822</v>
+        <v>-20.12419999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.20430000000002</v>
+        <v>-22.29730000000003</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.40939999999999</v>
+        <v>-20.39119999999999</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
